--- a/biology/Médecine/Dietrich_von_Engelhardt/Dietrich_von_Engelhardt.xlsx
+++ b/biology/Médecine/Dietrich_von_Engelhardt/Dietrich_von_Engelhardt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dietrich von Engelhardt (né le 5 mai 1941 à Göttingen[1]) est un historien allemand des sciences et de la médecine. Il est directeur de l'Institut d'histoire de la médecine et des études scientifiques à l'Université de Lübeck.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dietrich von Engelhardt (né le 5 mai 1941 à Göttingen) est un historien allemand des sciences et de la médecine. Il est directeur de l'Institut d'histoire de la médecine et des études scientifiques à l'Université de Lübeck.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dietrich von Engelhardt est le fils du minéralogiste et géologue Wolf von Engelhardt[2]. De 1961 à 1968, Dietrich von Engelhardt étudie la philosophie, l'histoire et les études slaves à l'université de Tübingen, à l'université Louis-et-Maximilien de Munich et à l'université de Heidelberg, où il obtient son doctorat en philosophie en 1969. Cela est suivi d'une formation en criminologie et en thérapie criminelle. En 1971, il devient l'assistant de Heinrich Schipperges (de) à l'Institut d'histoire de la médecine de l'Université de Heidelberg, où il obtient son habilitation en 1976 et devient professeur[3]. De 1983 à 2007, il est professeur d'histoire de la médecine et d'histoire générale des sciences à l'Université de Lübeck et de 1993 à 1996 vice-recteur de l'Université de Lübeck. Entre autres choses, il contribue à la Deutsche Biographische Enzyklopädie de Walther Killy et Rudolf Vierhaus.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dietrich von Engelhardt est le fils du minéralogiste et géologue Wolf von Engelhardt. De 1961 à 1968, Dietrich von Engelhardt étudie la philosophie, l'histoire et les études slaves à l'université de Tübingen, à l'université Louis-et-Maximilien de Munich et à l'université de Heidelberg, où il obtient son doctorat en philosophie en 1969. Cela est suivi d'une formation en criminologie et en thérapie criminelle. En 1971, il devient l'assistant de Heinrich Schipperges (de) à l'Institut d'histoire de la médecine de l'Université de Heidelberg, où il obtient son habilitation en 1976 et devient professeur. De 1983 à 2007, il est professeur d'histoire de la médecine et d'histoire générale des sciences à l'Université de Lübeck et de 1993 à 1996 vice-recteur de l'Université de Lübeck. Entre autres choses, il contribue à la Deutsche Biographische Enzyklopädie de Walther Killy et Rudolf Vierhaus.
 De 1998 à 2002, il est directeur par intérim de l'Institut d'histoire et d'éthique de la médecine à l'Université technique de Munich.
-En 1995, il est élu membre de l'Académie allemande des sciences naturelles Léopoldine[4]. De 2001 à 2010, il est président de l'Académie d'éthique en médecine (de) et de 2008 à 2011 vice-président du comité provincial d'éthique du Tyrol du Sud. En 2010, il devient membre de l'Académie des sciences d'utilité publique d'Erfurt. En 2014, le prix de la Fondation Docteur-Margrit-Egnér (de) lui est attribué. En 2016, il reçoit la médaille Alexander-von-Humboldt de la Société des naturalistes et médecins allemands (de) (GDNÄ).
+En 1995, il est élu membre de l'Académie allemande des sciences naturelles Léopoldine. De 2001 à 2010, il est président de l'Académie d'éthique en médecine (de) et de 2008 à 2011 vice-président du comité provincial d'éthique du Tyrol du Sud. En 2010, il devient membre de l'Académie des sciences d'utilité publique d'Erfurt. En 2014, le prix de la Fondation Docteur-Margrit-Egnér (de) lui est attribué. En 2016, il reçoit la médaille Alexander-von-Humboldt de la Société des naturalistes et médecins allemands (de) (GDNÄ).
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Publications (sélection)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Hegel und die Chemie. Studie zur Philosophie und Wissenschaft der Natur um 1800. Guido Pressler Verlag, Hürtgenwald 1976.
 Medizin und Literatur in der Neuzeit – Perspektiven und Aspekte. In: Deutsche Vierteljahrsschrift für Literaturwissenschaft und Geistesgeschichte. Band 52, 1978, S. 351–380.
